--- a/medicine/Premiers secours et secourisme/Mannequin_de_sauvetage/Mannequin_de_sauvetage.xlsx
+++ b/medicine/Premiers secours et secourisme/Mannequin_de_sauvetage/Mannequin_de_sauvetage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mannequin de sauvetage ou mannequin Pitet est un mannequin utilisé pour simuler le sauvetage aquatique d'un homme de 80 kg. Il a été inventé par Raymond Pitet en 1958[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mannequin de sauvetage ou mannequin Pitet est un mannequin utilisé pour simuler le sauvetage aquatique d'un homme de 80 kg. Il a été inventé par Raymond Pitet en 1958.
 Le mannequin à la norme internationale est rouge/orangé avec une bande blanche qui caractérise les poumons.
 Ce qui caractérise le mannequin dit « Pitet » agréé par la Fédération française de sauvetage et de secourisme, c'est :
 son poids apparent de 1,5 kg et 80 kg lorsqu'il est rempli d'eau ;
@@ -517,7 +529,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Il est utilisé :
 dans le cadre de l'apprentissage du sauvetage et secourisme, par exemple les formations BNSSA ;
